--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-10_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-10_beg.xlsx
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="프란카"]   의료팀! 여기 부상자가 있어!
+    <t xml:space="preserve">[name="프란카"]   의료부! 여기 부상자가 있어!
 </t>
   </si>
   <si>
